--- a/cme/tasafija/tasa_cashflows.xlsx
+++ b/cme/tasafija/tasa_cashflows.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\tasafija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8451D-B4E5-4D6C-80A7-268B26428BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E940975-55DA-43ED-A3AC-CFCEAB442E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
+    <sheet name="TO23" sheetId="7" r:id="rId1"/>
+    <sheet name="TO21" sheetId="8" r:id="rId2"/>
+    <sheet name="TO26" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -27,15 +38,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Vencimiento</t>
+  </si>
+  <si>
+    <t>Fecha de pago</t>
+  </si>
+  <si>
+    <t>Interés</t>
+  </si>
+  <si>
+    <t>Capitalización</t>
+  </si>
+  <si>
+    <t>Amortización</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +95,102 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -58,8 +199,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +514,1196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8117B5C-AC86-4AA0-8D54-DFEE041FDD5B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42660</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42660</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42842</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42842</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43025</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43025</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43207</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43390</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43572</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43572</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43755</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43755</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43938</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44121</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44121</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44303</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44303</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44486</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44668</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44668</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44851</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44851</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45033</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45033</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>45216</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45216</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>100</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BE1CDD-4653-489E-B0AC-4EB2CB11233E}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42646</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42828</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42828</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43011</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43011</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43193</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43376</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43376</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43558</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43558</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43741</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43741</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43924</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44107</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44107</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44289</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44289</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44472</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44472</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>100</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5D58D4-9BCE-4329-9D45-2B4AC666C600}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42660</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42660</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42842</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42842</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43025</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43025</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43207</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43390</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43390</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43572</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43572</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43755</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43755</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43938</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44121</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44121</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44303</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44303</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44486</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44668</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44668</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44851</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44851</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45033</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45033</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45216</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45216</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45399</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45399</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45582</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45582</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45764</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45764</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45947</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45947</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46129</v>
+      </c>
+      <c r="C21" s="2">
+        <v>46129</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>46312</v>
+      </c>
+      <c r="C22" s="9">
+        <v>46312</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>100</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>